--- a/Software/ZoomInfo.xlsx
+++ b/Software/ZoomInfo.xlsx
@@ -1,28 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4166CDD5-EB1B-FA4C-869E-5914456AC2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5121564C-5F44-AD47-8A46-6E5AEC419F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28440" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23780" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">'Sheet 1'!$B$106:$F$106</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">'Sheet 1'!$B$19:$F$19</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">'Sheet 1'!$B$3:$F$3</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -866,7 +858,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -922,18 +914,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -958,12 +938,6 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1004,11 +978,28 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2385,11 +2376,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F60" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L66" sqref="L66"/>
+      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2536,7 +2527,7 @@
         <v>0.56908861822763535</v>
       </c>
       <c r="F4" s="15">
-        <f t="shared" ref="F4:L4" si="0">(F3/E3)-1</f>
+        <f t="shared" ref="F4:K4" si="0">(F3/E3)-1</f>
         <v>0.46948608137044978</v>
       </c>
       <c r="G4" s="16">
@@ -2669,15 +2660,15 @@
         <f>F7</f>
         <v>0.82840000000000003</v>
       </c>
-      <c r="M7" s="68">
+      <c r="M7" s="61">
         <f>F21</f>
         <v>0.30049999999999999</v>
       </c>
-      <c r="N7" s="68">
+      <c r="N7" s="61">
         <f>F30</f>
         <v>5.7599999999999998E-2</v>
       </c>
-      <c r="O7" s="68">
+      <c r="O7" s="61">
         <f>F106/F3</f>
         <v>0.35346083788706739</v>
       </c>
@@ -2711,7 +2702,7 @@
         <v>4.2273042273042273E-2</v>
       </c>
       <c r="C9" s="15">
-        <f t="shared" ref="C9:G9" si="1">C8/C3</f>
+        <f t="shared" ref="C9:F9" si="1">C8/C3</f>
         <v>0.1026252983293556</v>
       </c>
       <c r="D9" s="15">
@@ -2764,15 +2755,15 @@
         <f>F9</f>
         <v>0.18688524590163935</v>
       </c>
-      <c r="M10" s="68">
+      <c r="M10" s="61">
         <f>F13</f>
         <v>0.45765027322404372</v>
       </c>
-      <c r="N10" s="68">
+      <c r="N10" s="61">
         <f>F80</f>
         <v>0.17513661202185793</v>
       </c>
-      <c r="O10" s="68">
+      <c r="O10" s="61">
         <f>F89</f>
         <v>2.6320582877959926E-2</v>
       </c>
@@ -2838,7 +2829,7 @@
         <v>0.43797643797643798</v>
       </c>
       <c r="C13" s="15">
-        <f t="shared" ref="C13:G13" si="2">C12/C3</f>
+        <f t="shared" ref="C13:F13" si="2">C12/C3</f>
         <v>0.42720763723150357</v>
       </c>
       <c r="D13" s="15">
@@ -2859,11 +2850,11 @@
         <f>F28/F72</f>
         <v>2.7819350294920327E-2</v>
       </c>
-      <c r="M13" s="68">
+      <c r="M13" s="61">
         <f>F28/F54</f>
         <v>8.85600582926966E-3</v>
       </c>
-      <c r="N13" s="68">
+      <c r="N13" s="61">
         <f>F22/(F72+F56+F61)</f>
         <v>4.9028083777226207E-2</v>
       </c>
@@ -2949,15 +2940,15 @@
       </c>
       <c r="M16" s="25">
         <f>N101/F3</f>
-        <v>10.3224043715847</v>
+        <v>8.0259147173497283</v>
       </c>
       <c r="N16" s="25">
         <f>N101/F28</f>
-        <v>179.33544303797467</v>
+        <v>139.43756898180382</v>
       </c>
       <c r="O16" s="26">
         <f>N101/F106</f>
-        <v>29.203813450141716</v>
+        <v>22.706659004509152</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -3045,7 +3036,7 @@
         <v>1.0406222990492653</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:G20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20" si="3">(F19/E19)-1</f>
         <v>0.39771283354510811</v>
       </c>
     </row>
@@ -3227,7 +3218,7 @@
         <v>-13.835164835164836</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:G29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29" si="4">(F28/E28)-1</f>
         <v>-0.45890410958904104</v>
       </c>
     </row>
@@ -3341,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="20">
-        <f t="shared" ref="D35:G35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:F35" si="5">(D34-C34)/C34</f>
         <v>0.21141695343980399</v>
       </c>
       <c r="E35" s="20">
@@ -4238,7 +4229,7 @@
         <v>104</v>
       </c>
       <c r="B80" s="15">
-        <f t="shared" ref="B80:G80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:F80" si="6">B79/B3</f>
         <v>0.22661122661122662</v>
       </c>
       <c r="C80" s="15">
@@ -4317,10 +4308,10 @@
       <c r="F83" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M83" s="29" t="s">
+      <c r="M83" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="N83" s="30"/>
+      <c r="N83" s="65"/>
     </row>
     <row r="84" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4341,10 +4332,10 @@
       <c r="F84" s="1">
         <v>19500000</v>
       </c>
-      <c r="M84" s="31" t="s">
+      <c r="M84" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="N84" s="32"/>
+      <c r="N84" s="67"/>
     </row>
     <row r="85" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4365,10 +4356,10 @@
       <c r="F85" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M85" s="56" t="s">
+      <c r="M85" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="N85" s="57">
+      <c r="N85" s="51">
         <f>F17</f>
         <v>47600000</v>
       </c>
@@ -4392,10 +4383,10 @@
       <c r="F86" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M86" s="56" t="s">
+      <c r="M86" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="N86" s="57">
+      <c r="N86" s="51">
         <f>F56</f>
         <v>10300000</v>
       </c>
@@ -4419,10 +4410,10 @@
       <c r="F87" s="10">
         <v>417000000</v>
       </c>
-      <c r="M87" s="56" t="s">
+      <c r="M87" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="N87" s="57">
+      <c r="N87" s="51">
         <f>F61</f>
         <v>1303600000</v>
       </c>
@@ -4446,10 +4437,10 @@
       <c r="F88" s="1">
         <v>-28900000</v>
       </c>
-      <c r="M88" s="58" t="s">
+      <c r="M88" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="N88" s="59">
+      <c r="N88" s="53">
         <f>N85/(N86+N87)</f>
         <v>3.6228023441662226E-2</v>
       </c>
@@ -4459,7 +4450,7 @@
         <v>105</v>
       </c>
       <c r="B89" s="15">
-        <f t="shared" ref="B89:G89" si="7">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:F89" si="7">(-1*B88)/B3</f>
         <v>3.1878031878031877E-2</v>
       </c>
       <c r="C89" s="15">
@@ -4478,10 +4469,10 @@
         <f t="shared" si="7"/>
         <v>2.6320582877959926E-2</v>
       </c>
-      <c r="M89" s="56" t="s">
+      <c r="M89" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="N89" s="57">
+      <c r="N89" s="51">
         <f>F27</f>
         <v>131400000</v>
       </c>
@@ -4505,10 +4496,10 @@
       <c r="F90" s="1">
         <v>-143700000</v>
       </c>
-      <c r="M90" s="56" t="s">
+      <c r="M90" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="N90" s="57">
+      <c r="N90" s="51">
         <f>F25</f>
         <v>194600000</v>
       </c>
@@ -4532,10 +4523,10 @@
       <c r="F91" s="1">
         <v>-139300000</v>
       </c>
-      <c r="M91" s="58" t="s">
+      <c r="M91" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="N91" s="59">
+      <c r="N91" s="53">
         <f>N89/N90</f>
         <v>0.67523124357656727</v>
       </c>
@@ -4559,10 +4550,10 @@
       <c r="F92" s="1">
         <v>30800000</v>
       </c>
-      <c r="M92" s="60" t="s">
+      <c r="M92" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="N92" s="61">
+      <c r="N92" s="55">
         <f>N88*(1-N91)</f>
         <v>1.176573012082761E-2</v>
       </c>
@@ -4586,10 +4577,10 @@
       <c r="F93" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M93" s="31" t="s">
+      <c r="M93" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="N93" s="32"/>
+      <c r="N93" s="67"/>
     </row>
     <row r="94" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -4610,10 +4601,10 @@
       <c r="F94" s="10">
         <v>-281100000</v>
       </c>
-      <c r="M94" s="56" t="s">
+      <c r="M94" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="N94" s="62">
+      <c r="N94" s="56">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -4636,10 +4627,10 @@
       <c r="F95" s="1">
         <v>-400000</v>
       </c>
-      <c r="M95" s="63" t="s">
+      <c r="M95" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="N95" s="64">
+      <c r="N95" s="58">
         <v>0.95</v>
       </c>
     </row>
@@ -4662,10 +4653,10 @@
       <c r="F96" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M96" s="56" t="s">
+      <c r="M96" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="N96" s="62">
+      <c r="N96" s="56">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -4688,10 +4679,10 @@
       <c r="F97" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M97" s="60" t="s">
+      <c r="M97" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="N97" s="61">
+      <c r="N97" s="55">
         <f>(N94)+((N95)*(N96-N94))</f>
         <v>8.1847500000000004E-2</v>
       </c>
@@ -4715,10 +4706,10 @@
       <c r="F98" s="1">
         <v>0</v>
       </c>
-      <c r="M98" s="31" t="s">
+      <c r="M98" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="N98" s="32"/>
+      <c r="N98" s="67"/>
     </row>
     <row r="99" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -4739,10 +4730,10 @@
       <c r="F99" s="1">
         <v>-25500000</v>
       </c>
-      <c r="M99" s="56" t="s">
+      <c r="M99" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="N99" s="57">
+      <c r="N99" s="51">
         <f>N86+N87</f>
         <v>1313900000</v>
       </c>
@@ -4766,12 +4757,12 @@
       <c r="F100" s="10">
         <v>-25900000</v>
       </c>
-      <c r="M100" s="58" t="s">
+      <c r="M100" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="N100" s="59">
+      <c r="N100" s="53">
         <f>N99/N103</f>
-        <v>0.10388285802386167</v>
+        <v>0.12975054529351987</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -4793,11 +4784,12 @@
       <c r="F101" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M101" s="63" t="s">
+      <c r="M101" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="N101" s="65">
-        <v>11334000000</v>
+      <c r="N101" s="41">
+        <f>H116*F34</f>
+        <v>8812454359.6500015</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -4819,12 +4811,12 @@
       <c r="F102" s="10">
         <v>110000000</v>
       </c>
-      <c r="M102" s="58" t="s">
+      <c r="M102" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="N102" s="59">
+      <c r="N102" s="53">
         <f>N101/N103</f>
-        <v>0.89611714197613834</v>
+        <v>0.87024945470648007</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4846,12 +4838,12 @@
       <c r="F103" s="1">
         <v>314100000</v>
       </c>
-      <c r="M103" s="60" t="s">
+      <c r="M103" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="N103" s="66">
+      <c r="N103" s="59">
         <f>N99+N101</f>
-        <v>12647900000</v>
+        <v>10126354359.650002</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4873,10 +4865,10 @@
       <c r="F104" s="11">
         <v>424100000</v>
       </c>
-      <c r="M104" s="31" t="s">
+      <c r="M104" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="N104" s="32"/>
+      <c r="N104" s="67"/>
     </row>
     <row r="105" spans="1:14" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -4905,12 +4897,12 @@
       <c r="J105" s="15"/>
       <c r="K105" s="15"/>
       <c r="L105" s="15"/>
-      <c r="M105" s="33" t="s">
+      <c r="M105" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="N105" s="34">
+      <c r="N105" s="30">
         <f>(N100*N92)+(N102*N97)</f>
-        <v>7.4567205449580981E-2</v>
+        <v>7.2754352143042406E-2</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -4932,33 +4924,33 @@
       <c r="F106" s="1">
         <v>388100000</v>
       </c>
-      <c r="G106" s="67">
+      <c r="G106" s="60">
         <f>F106*(1+$N$106)</f>
         <v>467441113.9040218</v>
       </c>
-      <c r="H106" s="67">
+      <c r="H106" s="60">
         <f t="shared" ref="H106:K106" si="8">G106*(1+$N$106)</f>
         <v>563002306.02378941</v>
       </c>
-      <c r="I106" s="67">
+      <c r="I106" s="60">
         <f t="shared" si="8"/>
         <v>678099523.46893346</v>
       </c>
-      <c r="J106" s="67">
+      <c r="J106" s="60">
         <f t="shared" si="8"/>
         <v>816726608.06004798</v>
       </c>
-      <c r="K106" s="67">
+      <c r="K106" s="60">
         <f t="shared" si="8"/>
         <v>983693881.54249489</v>
       </c>
-      <c r="L106" s="35" t="s">
+      <c r="L106" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="M106" s="36" t="s">
+      <c r="M106" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="N106" s="37">
+      <c r="N106" s="33">
         <f>(SUM(G4:K4)/5)</f>
         <v>0.20443471760891993</v>
       </c>
@@ -4970,138 +4962,138 @@
       <c r="D107" s="13"/>
       <c r="E107" s="13"/>
       <c r="F107" s="13"/>
-      <c r="G107" s="35"/>
-      <c r="H107" s="35"/>
-      <c r="I107" s="35"/>
-      <c r="J107" s="35"/>
-      <c r="K107" s="38">
+      <c r="G107" s="31"/>
+      <c r="H107" s="31"/>
+      <c r="I107" s="31"/>
+      <c r="J107" s="31"/>
+      <c r="K107" s="34">
         <f>K106*(1+N107)/(N108-N107)</f>
-        <v>20341800983.851528</v>
-      </c>
-      <c r="L107" s="39" t="s">
+        <v>21114017536.262608</v>
+      </c>
+      <c r="L107" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="M107" s="40" t="s">
+      <c r="M107" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="N107" s="41">
+      <c r="N107" s="37">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G108" s="38">
+      <c r="G108" s="34">
         <f t="shared" ref="G108:I108" si="9">G107+G106</f>
         <v>467441113.9040218</v>
       </c>
-      <c r="H108" s="38">
+      <c r="H108" s="34">
         <f t="shared" si="9"/>
         <v>563002306.02378941</v>
       </c>
-      <c r="I108" s="38">
+      <c r="I108" s="34">
         <f t="shared" si="9"/>
         <v>678099523.46893346</v>
       </c>
-      <c r="J108" s="38">
+      <c r="J108" s="34">
         <f>J107+J106</f>
         <v>816726608.06004798</v>
       </c>
-      <c r="K108" s="38">
+      <c r="K108" s="34">
         <f>K107+K106</f>
-        <v>21325494865.394024</v>
-      </c>
-      <c r="L108" s="39" t="s">
+        <v>22097711417.805103</v>
+      </c>
+      <c r="L108" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="M108" s="42" t="s">
+      <c r="M108" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="N108" s="43">
+      <c r="N108" s="39">
         <f>N105</f>
-        <v>7.4567205449580981E-2</v>
+        <v>7.2754352143042406E-2</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G109" s="44" t="s">
+      <c r="G109" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="H109" s="45"/>
+      <c r="H109" s="63"/>
     </row>
     <row r="110" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G110" s="46" t="s">
+      <c r="G110" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="H110" s="47">
+      <c r="H110" s="41">
         <f>NPV(N108,G108,H108,I108,J108,K108)</f>
-        <v>16966030879.664362</v>
+        <v>17645081333.459118</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G111" s="46" t="s">
+      <c r="G111" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="H111" s="47">
+      <c r="H111" s="41">
         <f>F40</f>
         <v>545700000</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="20" x14ac:dyDescent="0.25">
-      <c r="G112" s="46" t="s">
+      <c r="G112" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="H112" s="47">
+      <c r="H112" s="41">
         <f>N99</f>
         <v>1313900000</v>
       </c>
     </row>
     <row r="113" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G113" s="46" t="s">
+      <c r="G113" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="H113" s="47">
+      <c r="H113" s="41">
         <f>H110+H111-H112</f>
-        <v>16197830879.66436</v>
+        <v>16876881333.459118</v>
       </c>
     </row>
     <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G114" s="46" t="s">
+      <c r="G114" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="H114" s="48">
+      <c r="H114" s="42">
         <f>F34*(1+(5*0.05))</f>
         <v>504144986.25</v>
       </c>
     </row>
     <row r="115" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G115" s="49" t="s">
+      <c r="G115" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="H115" s="50">
+      <c r="H115" s="44">
         <f>H113/H114</f>
-        <v>32.129310657533807</v>
+        <v>33.476245512218696</v>
       </c>
     </row>
     <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G116" s="51" t="s">
+      <c r="G116" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="H116" s="52">
+      <c r="H116" s="46">
         <v>21.85</v>
       </c>
     </row>
     <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G117" s="53" t="s">
+      <c r="G117" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="H117" s="54">
+      <c r="H117" s="48">
         <f>H115/H116-1</f>
-        <v>0.47044900034479653</v>
+        <v>0.53209361611984862</v>
       </c>
     </row>
     <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G118" s="53" t="s">
+      <c r="G118" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="H118" s="55" t="str">
+      <c r="H118" s="49" t="str">
         <f>IF(H115&gt;H116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>

--- a/Software/ZoomInfo.xlsx
+++ b/Software/ZoomInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5121564C-5F44-AD47-8A46-6E5AEC419F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B02F2C-082A-774D-88E7-3D46F8BF505B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23780" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23780" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="160">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -354,9 +391,6 @@
   </si>
   <si>
     <t>FCF Growth YoY</t>
-  </si>
-  <si>
-    <t>ZoomInfo</t>
   </si>
   <si>
     <t>3yr Rev Growth</t>
@@ -858,7 +892,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -950,10 +984,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -974,15 +1004,13 @@
     </xf>
     <xf numFmtId="10" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2077,6 +2105,446 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=btyuz2&amp;q=XNAS%3aZI&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>ZoomInfo Technologies Inc (XNAS:ZI)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-US</v>
+    <v>btyuz2</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>61.44</v>
+    <v>20.72</v>
+    <v>1.8620000000000001</v>
+    <v>0.28999999999999998</v>
+    <v>1.1875999999999999E-2</v>
+    <v>-0.01</v>
+    <v>-4.0469999999999997E-4</v>
+    <v>USD</v>
+    <v>ZoomInfo Technologies Inc., through its subsidiaries, provides a go-to-market intelligence and engagement platform for sales and marketing teams. The Company’s cloud-based platform delivers intelligence and analytics to provide sales, marketing, operations, and recruiting professionals' information and insights on the organizations and professionals they target. It delivers an artificial intelligence (AI) and machine learning (ML) powered engine that gathers data from millions of sources and standardizes, matches to entities, verifies, cleans, and applies the processed data to companies and people at scale. It aggregates and extracts distinct types of data, such as revenue, locations, technologies, keywords, contact information, including email addresses, titles, and phone numbers, and many others, from various public and proprietary sources. The Company serves various industry verticals, including software, business services, manufacturing, telecommunications, real estate and others.</v>
+    <v>3540</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>805 Broadway St, Suite 900, VANCOUVER, WA, 98660 US</v>
+    <v>25.2</v>
+    <v>Software &amp; IT Services</v>
+    <v>Stock</v>
+    <v>45016.909794478903</v>
+    <v>0</v>
+    <v>24.36</v>
+    <v>9985198000</v>
+    <v>ZoomInfo Technologies Inc</v>
+    <v>ZoomInfo Technologies Inc</v>
+    <v>24.54</v>
+    <v>155.90880000000001</v>
+    <v>24.42</v>
+    <v>24.71</v>
+    <v>24.7</v>
+    <v>404095400</v>
+    <v>ZI</v>
+    <v>ZoomInfo Technologies Inc (XNAS:ZI)</v>
+    <v>4710778</v>
+    <v>4889114</v>
+    <v>2019</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="45">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2377,10 +2845,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K25" sqref="K25"/>
+      <selection pane="bottomRight" activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2393,8 +2861,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>107</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>2018</v>
@@ -2497,16 +2965,16 @@
         <v>2780000000</v>
       </c>
       <c r="L3" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="M3" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="N3" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="O3" s="23" t="s">
         <v>110</v>
-      </c>
-      <c r="O3" s="23" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -2625,16 +3093,16 @@
         <v>909600000</v>
       </c>
       <c r="L6" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="M6" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="M6" s="23" t="s">
+      <c r="N6" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="N6" s="23" t="s">
+      <c r="O6" s="23" t="s">
         <v>114</v>
-      </c>
-      <c r="O6" s="23" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -2660,15 +3128,15 @@
         <f>F7</f>
         <v>0.82840000000000003</v>
       </c>
-      <c r="M7" s="61">
+      <c r="M7" s="56">
         <f>F21</f>
         <v>0.30049999999999999</v>
       </c>
-      <c r="N7" s="61">
+      <c r="N7" s="56">
         <f>F30</f>
         <v>5.7599999999999998E-2</v>
       </c>
-      <c r="O7" s="61">
+      <c r="O7" s="56">
         <f>F106/F3</f>
         <v>0.35346083788706739</v>
       </c>
@@ -2755,15 +3223,15 @@
         <f>F9</f>
         <v>0.18688524590163935</v>
       </c>
-      <c r="M10" s="61">
+      <c r="M10" s="56">
         <f>F13</f>
         <v>0.45765027322404372</v>
       </c>
-      <c r="N10" s="61">
+      <c r="N10" s="56">
         <f>F80</f>
         <v>0.17513661202185793</v>
       </c>
-      <c r="O10" s="61">
+      <c r="O10" s="56">
         <f>F89</f>
         <v>2.6320582877959926E-2</v>
       </c>
@@ -2808,16 +3276,16 @@
         <v>502500000</v>
       </c>
       <c r="L12" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="M12" s="23" t="s">
+      <c r="N12" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="N12" s="23" t="s">
+      <c r="O12" s="23" t="s">
         <v>118</v>
-      </c>
-      <c r="O12" s="23" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -2850,11 +3318,11 @@
         <f>F28/F72</f>
         <v>2.7819350294920327E-2</v>
       </c>
-      <c r="M13" s="61">
+      <c r="M13" s="56">
         <f>F28/F54</f>
         <v>8.85600582926966E-3</v>
       </c>
-      <c r="N13" s="61">
+      <c r="N13" s="56">
         <f>F22/(F72+F56+F61)</f>
         <v>4.9028083777226207E-2</v>
       </c>
@@ -2903,16 +3371,16 @@
         <v>733800000</v>
       </c>
       <c r="L15" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="M15" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="M15" s="23" t="s">
+      <c r="N15" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="N15" s="23" t="s">
+      <c r="O15" s="23" t="s">
         <v>122</v>
-      </c>
-      <c r="O15" s="23" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -2940,15 +3408,15 @@
       </c>
       <c r="M16" s="25">
         <f>N101/F3</f>
-        <v>8.0259147173497283</v>
+        <v>9.093987249544627</v>
       </c>
       <c r="N16" s="25">
         <f>N101/F28</f>
-        <v>139.43756898180382</v>
+        <v>157.99363924050633</v>
       </c>
       <c r="O16" s="26">
         <f>N101/F106</f>
-        <v>22.706659004509152</v>
+        <v>25.728415356866787</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -2991,7 +3459,7 @@
         <v>87800000</v>
       </c>
       <c r="L18" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -4308,10 +4776,10 @@
       <c r="F83" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M83" s="64" t="s">
-        <v>125</v>
-      </c>
-      <c r="N83" s="65"/>
+      <c r="M83" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="N83" s="63"/>
     </row>
     <row r="84" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4332,10 +4800,10 @@
       <c r="F84" s="1">
         <v>19500000</v>
       </c>
-      <c r="M84" s="66" t="s">
-        <v>126</v>
-      </c>
-      <c r="N84" s="67"/>
+      <c r="M84" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="N84" s="65"/>
     </row>
     <row r="85" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4356,10 +4824,10 @@
       <c r="F85" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M85" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="N85" s="51">
+      <c r="M85" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="N85" s="49">
         <f>F17</f>
         <v>47600000</v>
       </c>
@@ -4383,10 +4851,10 @@
       <c r="F86" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M86" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="N86" s="51">
+      <c r="M86" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="N86" s="49">
         <f>F56</f>
         <v>10300000</v>
       </c>
@@ -4410,10 +4878,10 @@
       <c r="F87" s="10">
         <v>417000000</v>
       </c>
-      <c r="M87" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="N87" s="51">
+      <c r="M87" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="N87" s="49">
         <f>F61</f>
         <v>1303600000</v>
       </c>
@@ -4437,10 +4905,10 @@
       <c r="F88" s="1">
         <v>-28900000</v>
       </c>
-      <c r="M88" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="N88" s="53">
+      <c r="M88" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="N88" s="51">
         <f>N85/(N86+N87)</f>
         <v>3.6228023441662226E-2</v>
       </c>
@@ -4469,10 +4937,10 @@
         <f t="shared" si="7"/>
         <v>2.6320582877959926E-2</v>
       </c>
-      <c r="M89" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="N89" s="51">
+      <c r="M89" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="N89" s="49">
         <f>F27</f>
         <v>131400000</v>
       </c>
@@ -4496,10 +4964,10 @@
       <c r="F90" s="1">
         <v>-143700000</v>
       </c>
-      <c r="M90" s="50" t="s">
+      <c r="M90" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="N90" s="51">
+      <c r="N90" s="49">
         <f>F25</f>
         <v>194600000</v>
       </c>
@@ -4523,10 +4991,10 @@
       <c r="F91" s="1">
         <v>-139300000</v>
       </c>
-      <c r="M91" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="N91" s="53">
+      <c r="M91" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="N91" s="51">
         <f>N89/N90</f>
         <v>0.67523124357656727</v>
       </c>
@@ -4550,10 +5018,10 @@
       <c r="F92" s="1">
         <v>30800000</v>
       </c>
-      <c r="M92" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="N92" s="55">
+      <c r="M92" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="N92" s="53">
         <f>N88*(1-N91)</f>
         <v>1.176573012082761E-2</v>
       </c>
@@ -4577,10 +5045,10 @@
       <c r="F93" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M93" s="66" t="s">
-        <v>134</v>
-      </c>
-      <c r="N93" s="67"/>
+      <c r="M93" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="N93" s="65"/>
     </row>
     <row r="94" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -4601,10 +5069,10 @@
       <c r="F94" s="10">
         <v>-281100000</v>
       </c>
-      <c r="M94" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="N94" s="56">
+      <c r="M94" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="N94" s="54">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -4627,11 +5095,12 @@
       <c r="F95" s="1">
         <v>-400000</v>
       </c>
-      <c r="M95" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="N95" s="58">
-        <v>0.95</v>
+      <c r="M95" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="N95" s="58" cm="1">
+        <f t="array" ref="N95">_FV(A1,"Beta")</f>
+        <v>1.8620000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -4653,10 +5122,10 @@
       <c r="F96" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M96" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="N96" s="56">
+      <c r="M96" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="N96" s="54">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -4679,12 +5148,12 @@
       <c r="F97" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M97" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="N97" s="55">
+      <c r="M97" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="N97" s="53">
         <f>(N94)+((N95)*(N96-N94))</f>
-        <v>8.1847500000000004E-2</v>
+        <v>0.12110910000000001</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4706,10 +5175,10 @@
       <c r="F98" s="1">
         <v>0</v>
       </c>
-      <c r="M98" s="66" t="s">
-        <v>139</v>
-      </c>
-      <c r="N98" s="67"/>
+      <c r="M98" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="N98" s="65"/>
     </row>
     <row r="99" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -4730,10 +5199,10 @@
       <c r="F99" s="1">
         <v>-25500000</v>
       </c>
-      <c r="M99" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="N99" s="51">
+      <c r="M99" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="N99" s="49">
         <f>N86+N87</f>
         <v>1313900000</v>
       </c>
@@ -4757,12 +5226,12 @@
       <c r="F100" s="10">
         <v>-25900000</v>
       </c>
-      <c r="M100" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="N100" s="53">
+      <c r="M100" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="N100" s="51">
         <f>N99/N103</f>
-        <v>0.12975054529351987</v>
+        <v>0.11628361839148577</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -4784,12 +5253,12 @@
       <c r="F101" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M101" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="N101" s="41">
-        <f>H116*F34</f>
-        <v>8812454359.6500015</v>
+      <c r="M101" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="N101" s="41" cm="1">
+        <f t="array" ref="N101">_FV(A1,"Market cap",TRUE)</f>
+        <v>9985198000</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -4811,12 +5280,12 @@
       <c r="F102" s="10">
         <v>110000000</v>
       </c>
-      <c r="M102" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="N102" s="53">
+      <c r="M102" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="N102" s="51">
         <f>N101/N103</f>
-        <v>0.87024945470648007</v>
+        <v>0.88371638160851429</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -4838,12 +5307,12 @@
       <c r="F103" s="1">
         <v>314100000</v>
       </c>
-      <c r="M103" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="N103" s="59">
+      <c r="M103" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="N103" s="55">
         <f>N99+N101</f>
-        <v>10126354359.650002</v>
+        <v>11299098000</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4865,10 +5334,10 @@
       <c r="F104" s="11">
         <v>424100000</v>
       </c>
-      <c r="M104" s="66" t="s">
-        <v>145</v>
-      </c>
-      <c r="N104" s="67"/>
+      <c r="M104" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="N104" s="65"/>
     </row>
     <row r="105" spans="1:14" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -4898,11 +5367,11 @@
       <c r="K105" s="15"/>
       <c r="L105" s="15"/>
       <c r="M105" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N105" s="30">
         <f>(N100*N92)+(N102*N97)</f>
-        <v>7.2754352143042406E-2</v>
+        <v>0.10839425730333126</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -4924,31 +5393,31 @@
       <c r="F106" s="1">
         <v>388100000</v>
       </c>
-      <c r="G106" s="60">
+      <c r="G106" s="57">
         <f>F106*(1+$N$106)</f>
         <v>467441113.9040218</v>
       </c>
-      <c r="H106" s="60">
+      <c r="H106" s="57">
         <f t="shared" ref="H106:K106" si="8">G106*(1+$N$106)</f>
         <v>563002306.02378941</v>
       </c>
-      <c r="I106" s="60">
+      <c r="I106" s="57">
         <f t="shared" si="8"/>
         <v>678099523.46893346</v>
       </c>
-      <c r="J106" s="60">
+      <c r="J106" s="57">
         <f t="shared" si="8"/>
         <v>816726608.06004798</v>
       </c>
-      <c r="K106" s="60">
+      <c r="K106" s="57">
         <f t="shared" si="8"/>
         <v>983693881.54249489</v>
       </c>
       <c r="L106" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="M106" s="32" t="s">
         <v>147</v>
-      </c>
-      <c r="M106" s="32" t="s">
-        <v>148</v>
       </c>
       <c r="N106" s="33">
         <f>(SUM(G4:K4)/5)</f>
@@ -4968,13 +5437,13 @@
       <c r="J107" s="31"/>
       <c r="K107" s="34">
         <f>K106*(1+N107)/(N108-N107)</f>
-        <v>21114017536.262608</v>
+        <v>12090595458.073351</v>
       </c>
       <c r="L107" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="M107" s="36" t="s">
         <v>149</v>
-      </c>
-      <c r="M107" s="36" t="s">
-        <v>150</v>
       </c>
       <c r="N107" s="37">
         <v>2.5000000000000001E-2</v>
@@ -4999,37 +5468,37 @@
       </c>
       <c r="K108" s="34">
         <f>K107+K106</f>
-        <v>22097711417.805103</v>
+        <v>13074289339.615847</v>
       </c>
       <c r="L108" s="35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M108" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N108" s="39">
         <f>N105</f>
-        <v>7.2754352143042406E-2</v>
+        <v>0.10839425730333126</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G109" s="62" t="s">
-        <v>152</v>
-      </c>
-      <c r="H109" s="63"/>
+      <c r="G109" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="H109" s="61"/>
     </row>
     <row r="110" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="G110" s="40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H110" s="41">
         <f>NPV(N108,G108,H108,I108,J108,K108)</f>
-        <v>17645081333.459118</v>
+        <v>9734424367.9502926</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="G111" s="40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H111" s="41">
         <f>F40</f>
@@ -5038,7 +5507,7 @@
     </row>
     <row r="112" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="G112" s="40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H112" s="41">
         <f>N99</f>
@@ -5047,16 +5516,16 @@
     </row>
     <row r="113" spans="7:8" ht="20" x14ac:dyDescent="0.25">
       <c r="G113" s="40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H113" s="41">
         <f>H110+H111-H112</f>
-        <v>16876881333.459118</v>
+        <v>8966224367.9502926</v>
       </c>
     </row>
     <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
       <c r="G114" s="40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H114" s="42">
         <f>F34*(1+(5*0.05))</f>
@@ -5065,37 +5534,38 @@
     </row>
     <row r="115" spans="7:8" ht="20" x14ac:dyDescent="0.25">
       <c r="G115" s="43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H115" s="44">
         <f>H113/H114</f>
-        <v>33.476245512218696</v>
+        <v>17.785011479820689</v>
       </c>
     </row>
     <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G116" s="45" t="s">
+      <c r="G116" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="H116" s="59" cm="1">
+        <f t="array" ref="H116">_FV(A1,"Price (Extended hours)",TRUE)</f>
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="G117" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="H116" s="46">
-        <v>21.85</v>
-      </c>
-    </row>
-    <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G117" s="47" t="s">
+      <c r="H117" s="46">
+        <f>H115/H116-1</f>
+        <v>-0.27995904939997207</v>
+      </c>
+    </row>
+    <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">
+      <c r="G118" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="H117" s="48">
-        <f>H115/H116-1</f>
-        <v>0.53209361611984862</v>
-      </c>
-    </row>
-    <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G118" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="H118" s="49" t="str">
+      <c r="H118" s="47" t="str">
         <f>IF(H115&gt;H116,"BUY","SELL")</f>
-        <v>BUY</v>
+        <v>SELL</v>
       </c>
     </row>
   </sheetData>

--- a/Software/ZoomInfo.xlsx
+++ b/Software/ZoomInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B02F2C-082A-774D-88E7-3D46F8BF505B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0780E254-9947-234B-AFA2-A58765427A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23780" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -556,11 +556,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="172" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -983,7 +984,6 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1029,6 +1029,7 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="172" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2225,13 +2226,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>61.44</v>
+    <v>57.63</v>
     <v>20.72</v>
-    <v>1.8620000000000001</v>
-    <v>0.28999999999999998</v>
-    <v>1.1875999999999999E-2</v>
-    <v>-0.01</v>
-    <v>-4.0469999999999997E-4</v>
+    <v>1.8640000000000001</v>
+    <v>0.12</v>
+    <v>5.2199999999999998E-3</v>
+    <v>-0.3</v>
+    <v>-1.2980999999999999E-2</v>
     <v>USD</v>
     <v>ZoomInfo Technologies Inc., through its subsidiaries, provides a go-to-market intelligence and engagement platform for sales and marketing teams. The Company’s cloud-based platform delivers intelligence and analytics to provide sales, marketing, operations, and recruiting professionals' information and insights on the organizations and professionals they target. It delivers an artificial intelligence (AI) and machine learning (ML) powered engine that gathers data from millions of sources and standardizes, matches to entities, verifies, cleans, and applies the processed data to companies and people at scale. It aggregates and extracts distinct types of data, such as revenue, locations, technologies, keywords, contact information, including email addresses, titles, and phone numbers, and many others, from various public and proprietary sources. The Company serves various industry verticals, including software, business services, manufacturing, telecommunications, real estate and others.</v>
     <v>3540</v>
@@ -2239,25 +2240,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>805 Broadway St, Suite 900, VANCOUVER, WA, 98660 US</v>
-    <v>25.2</v>
+    <v>23.274999999999999</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45016.909794478903</v>
+    <v>45022.953774293746</v>
     <v>0</v>
-    <v>24.36</v>
-    <v>9985198000</v>
+    <v>22.52</v>
+    <v>9338644694</v>
     <v>ZoomInfo Technologies Inc</v>
     <v>ZoomInfo Technologies Inc</v>
-    <v>24.54</v>
-    <v>155.90880000000001</v>
-    <v>24.42</v>
-    <v>24.71</v>
-    <v>24.7</v>
+    <v>22.864999999999998</v>
+    <v>146.779</v>
+    <v>22.99</v>
+    <v>23.11</v>
+    <v>22.81</v>
     <v>404095400</v>
     <v>ZI</v>
     <v>ZoomInfo Technologies Inc (XNAS:ZI)</v>
-    <v>4710778</v>
-    <v>4889114</v>
+    <v>5387027</v>
+    <v>4824654</v>
     <v>2019</v>
   </rv>
   <rv s="2">
@@ -2845,10 +2846,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H100" sqref="H100"/>
+      <selection pane="bottomRight" activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3128,15 +3129,15 @@
         <f>F7</f>
         <v>0.82840000000000003</v>
       </c>
-      <c r="M7" s="56">
+      <c r="M7" s="55">
         <f>F21</f>
         <v>0.30049999999999999</v>
       </c>
-      <c r="N7" s="56">
+      <c r="N7" s="55">
         <f>F30</f>
         <v>5.7599999999999998E-2</v>
       </c>
-      <c r="O7" s="56">
+      <c r="O7" s="55">
         <f>F106/F3</f>
         <v>0.35346083788706739</v>
       </c>
@@ -3223,15 +3224,15 @@
         <f>F9</f>
         <v>0.18688524590163935</v>
       </c>
-      <c r="M10" s="56">
+      <c r="M10" s="55">
         <f>F13</f>
         <v>0.45765027322404372</v>
       </c>
-      <c r="N10" s="56">
+      <c r="N10" s="55">
         <f>F80</f>
         <v>0.17513661202185793</v>
       </c>
-      <c r="O10" s="56">
+      <c r="O10" s="55">
         <f>F89</f>
         <v>2.6320582877959926E-2</v>
       </c>
@@ -3318,11 +3319,11 @@
         <f>F28/F72</f>
         <v>2.7819350294920327E-2</v>
       </c>
-      <c r="M13" s="56">
+      <c r="M13" s="55">
         <f>F28/F54</f>
         <v>8.85600582926966E-3</v>
       </c>
-      <c r="N13" s="56">
+      <c r="N13" s="55">
         <f>F22/(F72+F56+F61)</f>
         <v>4.9028083777226207E-2</v>
       </c>
@@ -3408,15 +3409,15 @@
       </c>
       <c r="M16" s="25">
         <f>N101/F3</f>
-        <v>9.093987249544627</v>
+        <v>8.5051408870673946</v>
       </c>
       <c r="N16" s="25">
         <f>N101/F28</f>
-        <v>157.99363924050633</v>
+        <v>147.76336541139241</v>
       </c>
       <c r="O16" s="26">
         <f>N101/F106</f>
-        <v>25.728415356866787</v>
+        <v>24.062470224169029</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
@@ -4776,10 +4777,10 @@
       <c r="F83" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M83" s="62" t="s">
+      <c r="M83" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="N83" s="63"/>
+      <c r="N83" s="62"/>
     </row>
     <row r="84" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -4800,10 +4801,10 @@
       <c r="F84" s="1">
         <v>19500000</v>
       </c>
-      <c r="M84" s="64" t="s">
+      <c r="M84" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="N84" s="65"/>
+      <c r="N84" s="64"/>
     </row>
     <row r="85" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -4824,10 +4825,10 @@
       <c r="F85" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M85" s="48" t="s">
+      <c r="M85" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="N85" s="49">
+      <c r="N85" s="48">
         <f>F17</f>
         <v>47600000</v>
       </c>
@@ -4851,10 +4852,10 @@
       <c r="F86" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M86" s="48" t="s">
+      <c r="M86" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="N86" s="49">
+      <c r="N86" s="48">
         <f>F56</f>
         <v>10300000</v>
       </c>
@@ -4878,10 +4879,10 @@
       <c r="F87" s="10">
         <v>417000000</v>
       </c>
-      <c r="M87" s="48" t="s">
+      <c r="M87" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="N87" s="49">
+      <c r="N87" s="48">
         <f>F61</f>
         <v>1303600000</v>
       </c>
@@ -4905,10 +4906,10 @@
       <c r="F88" s="1">
         <v>-28900000</v>
       </c>
-      <c r="M88" s="50" t="s">
+      <c r="M88" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="N88" s="51">
+      <c r="N88" s="50">
         <f>N85/(N86+N87)</f>
         <v>3.6228023441662226E-2</v>
       </c>
@@ -4937,10 +4938,10 @@
         <f t="shared" si="7"/>
         <v>2.6320582877959926E-2</v>
       </c>
-      <c r="M89" s="48" t="s">
+      <c r="M89" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="N89" s="49">
+      <c r="N89" s="48">
         <f>F27</f>
         <v>131400000</v>
       </c>
@@ -4964,10 +4965,10 @@
       <c r="F90" s="1">
         <v>-143700000</v>
       </c>
-      <c r="M90" s="48" t="s">
+      <c r="M90" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="N90" s="49">
+      <c r="N90" s="48">
         <f>F25</f>
         <v>194600000</v>
       </c>
@@ -4991,10 +4992,10 @@
       <c r="F91" s="1">
         <v>-139300000</v>
       </c>
-      <c r="M91" s="50" t="s">
+      <c r="M91" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="N91" s="51">
+      <c r="N91" s="50">
         <f>N89/N90</f>
         <v>0.67523124357656727</v>
       </c>
@@ -5018,10 +5019,10 @@
       <c r="F92" s="1">
         <v>30800000</v>
       </c>
-      <c r="M92" s="52" t="s">
+      <c r="M92" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="N92" s="53">
+      <c r="N92" s="52">
         <f>N88*(1-N91)</f>
         <v>1.176573012082761E-2</v>
       </c>
@@ -5045,10 +5046,10 @@
       <c r="F93" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M93" s="64" t="s">
+      <c r="M93" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="N93" s="65"/>
+      <c r="N93" s="64"/>
     </row>
     <row r="94" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5069,10 +5070,10 @@
       <c r="F94" s="10">
         <v>-281100000</v>
       </c>
-      <c r="M94" s="48" t="s">
+      <c r="M94" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="N94" s="54">
+      <c r="N94" s="53">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -5095,12 +5096,12 @@
       <c r="F95" s="1">
         <v>-400000</v>
       </c>
-      <c r="M95" s="48" t="s">
+      <c r="M95" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="N95" s="58" cm="1">
+      <c r="N95" s="57" cm="1">
         <f t="array" ref="N95">_FV(A1,"Beta")</f>
-        <v>1.8620000000000001</v>
+        <v>1.8640000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5122,10 +5123,10 @@
       <c r="F96" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M96" s="48" t="s">
+      <c r="M96" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="N96" s="54">
+      <c r="N96" s="53">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -5148,12 +5149,12 @@
       <c r="F97" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M97" s="52" t="s">
+      <c r="M97" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="N97" s="53">
+      <c r="N97" s="52">
         <f>(N94)+((N95)*(N96-N94))</f>
-        <v>0.12110910000000001</v>
+        <v>0.12119520000000002</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5175,10 +5176,10 @@
       <c r="F98" s="1">
         <v>0</v>
       </c>
-      <c r="M98" s="64" t="s">
+      <c r="M98" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="N98" s="65"/>
+      <c r="N98" s="64"/>
     </row>
     <row r="99" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -5199,10 +5200,10 @@
       <c r="F99" s="1">
         <v>-25500000</v>
       </c>
-      <c r="M99" s="48" t="s">
+      <c r="M99" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="N99" s="49">
+      <c r="N99" s="48">
         <f>N86+N87</f>
         <v>1313900000</v>
       </c>
@@ -5226,12 +5227,12 @@
       <c r="F100" s="10">
         <v>-25900000</v>
       </c>
-      <c r="M100" s="50" t="s">
+      <c r="M100" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="N100" s="51">
+      <c r="N100" s="50">
         <f>N99/N103</f>
-        <v>0.11628361839148577</v>
+        <v>0.12334142101652468</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5253,12 +5254,12 @@
       <c r="F101" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M101" s="48" t="s">
+      <c r="M101" s="47" t="s">
         <v>141</v>
       </c>
       <c r="N101" s="41" cm="1">
         <f t="array" ref="N101">_FV(A1,"Market cap",TRUE)</f>
-        <v>9985198000</v>
+        <v>9338644694</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5280,12 +5281,12 @@
       <c r="F102" s="10">
         <v>110000000</v>
       </c>
-      <c r="M102" s="50" t="s">
+      <c r="M102" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="N102" s="51">
+      <c r="N102" s="50">
         <f>N101/N103</f>
-        <v>0.88371638160851429</v>
+        <v>0.87665857898347532</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5307,12 +5308,12 @@
       <c r="F103" s="1">
         <v>314100000</v>
       </c>
-      <c r="M103" s="52" t="s">
+      <c r="M103" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="N103" s="55">
+      <c r="N103" s="54">
         <f>N99+N101</f>
-        <v>11299098000</v>
+        <v>10652544694</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5334,10 +5335,10 @@
       <c r="F104" s="11">
         <v>424100000</v>
       </c>
-      <c r="M104" s="64" t="s">
+      <c r="M104" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="N104" s="65"/>
+      <c r="N104" s="64"/>
     </row>
     <row r="105" spans="1:14" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -5371,7 +5372,7 @@
       </c>
       <c r="N105" s="30">
         <f>(N100*N92)+(N102*N97)</f>
-        <v>0.10839425730333126</v>
+        <v>0.10769801368401791</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="19" x14ac:dyDescent="0.25">
@@ -5393,23 +5394,23 @@
       <c r="F106" s="1">
         <v>388100000</v>
       </c>
-      <c r="G106" s="57">
+      <c r="G106" s="56">
         <f>F106*(1+$N$106)</f>
         <v>467441113.9040218</v>
       </c>
-      <c r="H106" s="57">
+      <c r="H106" s="56">
         <f t="shared" ref="H106:K106" si="8">G106*(1+$N$106)</f>
         <v>563002306.02378941</v>
       </c>
-      <c r="I106" s="57">
+      <c r="I106" s="56">
         <f t="shared" si="8"/>
         <v>678099523.46893346</v>
       </c>
-      <c r="J106" s="57">
+      <c r="J106" s="56">
         <f t="shared" si="8"/>
         <v>816726608.06004798</v>
       </c>
-      <c r="K106" s="57">
+      <c r="K106" s="56">
         <f t="shared" si="8"/>
         <v>983693881.54249489</v>
       </c>
@@ -5437,7 +5438,7 @@
       <c r="J107" s="31"/>
       <c r="K107" s="34">
         <f>K106*(1+N107)/(N108-N107)</f>
-        <v>12090595458.073351</v>
+        <v>12192387503.206947</v>
       </c>
       <c r="L107" s="35" t="s">
         <v>148</v>
@@ -5468,7 +5469,7 @@
       </c>
       <c r="K108" s="34">
         <f>K107+K106</f>
-        <v>13074289339.615847</v>
+        <v>13176081384.749443</v>
       </c>
       <c r="L108" s="35" t="s">
         <v>143</v>
@@ -5478,14 +5479,14 @@
       </c>
       <c r="N108" s="39">
         <f>N105</f>
-        <v>0.10839425730333126</v>
+        <v>0.10769801368401791</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="19" x14ac:dyDescent="0.25">
-      <c r="G109" s="60" t="s">
+      <c r="G109" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="H109" s="61"/>
+      <c r="H109" s="60"/>
     </row>
     <row r="110" spans="1:14" ht="20" x14ac:dyDescent="0.25">
       <c r="G110" s="40" t="s">
@@ -5493,7 +5494,7 @@
       </c>
       <c r="H110" s="41">
         <f>NPV(N108,G108,H108,I108,J108,K108)</f>
-        <v>9734424367.9502926</v>
+        <v>9823198537.1413174</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="20" x14ac:dyDescent="0.25">
@@ -5520,7 +5521,7 @@
       </c>
       <c r="H113" s="41">
         <f>H110+H111-H112</f>
-        <v>8966224367.9502926</v>
+        <v>9054998537.1413174</v>
       </c>
     </row>
     <row r="114" spans="7:8" ht="20" x14ac:dyDescent="0.25">
@@ -5536,34 +5537,34 @@
       <c r="G115" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="H115" s="44">
+      <c r="H115" s="65">
         <f>H113/H114</f>
-        <v>17.785011479820689</v>
+        <v>17.961100048808266</v>
       </c>
     </row>
     <row r="116" spans="7:8" ht="20" x14ac:dyDescent="0.25">
       <c r="G116" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="H116" s="59" cm="1">
-        <f t="array" ref="H116">_FV(A1,"Price (Extended hours)",TRUE)</f>
-        <v>24.7</v>
+      <c r="H116" s="58" cm="1">
+        <f t="array" ref="H116">_FV(A1,"Price")</f>
+        <v>23.11</v>
       </c>
     </row>
     <row r="117" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G117" s="45" t="s">
+      <c r="G117" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="H117" s="46">
+      <c r="H117" s="45">
         <f>H115/H116-1</f>
-        <v>-0.27995904939997207</v>
+        <v>-0.22279965171751337</v>
       </c>
     </row>
     <row r="118" spans="7:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="G118" s="45" t="s">
+      <c r="G118" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="H118" s="47" t="str">
+      <c r="H118" s="46" t="str">
         <f>IF(H115&gt;H116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
